--- a/Iphone_CDados.xlsx
+++ b/Iphone_CDados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulochade/Desktop/insper/2 semestre/ciencia dos dados/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulochade/Desktop/insper/2 semestre/ciencia dos dados/Projeto/Cdados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E45BB79-5C41-6848-BECA-CD52F9FD4481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940A6A2-8CDB-C542-8DDB-D5153C04AFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27440" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="406">
   <si>
     <t>Treinamento</t>
   </si>
@@ -911,123 +911,36 @@
     <t>pq eu tô vendo preços de iphone pra comprar sendo q eu não vou comprar???</t>
   </si>
   <si>
-    <t>quão burguês safado você é? 
-spotify premium:✅
-netflix:✅
-globo play:✅
-amazon prime:✅
-viaja todo ano:❌
-plano de saúde:❌
-tv só sua:✅
-cartão de crédito só seu:✅
-filho único:✅
-sustentado pelos pais: ❌
-iphone:✅ https://t.co/swrvmblb58</t>
-  </si>
-  <si>
-    <t>meu deus tem bot ate do iphone me sinto perseguida aki</t>
-  </si>
-  <si>
     <t>odeio tanto os carregadores do iphone</t>
   </si>
   <si>
-    <t>rt @dudacarrarine02: eu nunca pedi nada pra vocês gente, me ajudem a trocar de iphone😅😅
-eu sempre curto e dou rt no de todo mundo, agora c…</t>
-  </si>
-  <si>
     <t>rt @crf_cacheadaaa: iphone é maravilhoso só seria melhor se tivesse a bateria do motorola e o preço do samsung.</t>
   </si>
   <si>
-    <t>rumores: mais detalhes sobre o iphone 12 e ipads de 2021
-https://t.co/4gwikhmbdn</t>
-  </si>
-  <si>
-    <t>@milanpoly iphone né filha</t>
-  </si>
-  <si>
-    <t>rt @_juxxpx: ✨ não é ✨✨ pq ✨ tu ✨ tem ✨✨ iphone ✨ que✨ tu é ✨ bonita ✨✨✨✨✨✨</t>
-  </si>
-  <si>
-    <t>já estou a ver... jordan’s 
-iphone 12 
-roupa a dizer chega 😻😻😻 hnmmm mãe 😻</t>
-  </si>
-  <si>
-    <t>@viniciusgsd10_ não consigo baixar de graça no iphone ai de raiva comprei</t>
-  </si>
-  <si>
     <t>rt @mnn55_tralha: iphone é maravilhoso só seria melhor se tivesse a bateria do motorola e o preço do samsung</t>
   </si>
   <si>
-    <t>vazam supostas imagens do iphone 12 😏 confiram mais em: https://t.co/hfm5dfj9hg via @nerdianooficial #iphone #apple #iphone12</t>
-  </si>
-  <si>
     <t>rt @alcidio_jb: não sei!!! o meu iphone 11 pro max 512gb avaliado em 108.000mts está sem carga 😌</t>
   </si>
   <si>
-    <t>vakinha para dar um iphone 11 pro max pra coitada da seulgi uma causa nobre https://t.co/upnmfhjwiq</t>
-  </si>
-  <si>
-    <t>ae o galera reslbi meu ceular twitter for iphone aqui o</t>
-  </si>
-  <si>
-    <t>rt @crf_gataa333: povo acha q iphone é sinônimo de riqueza kkkkkkkkkk eu só sei rir</t>
-  </si>
-  <si>
     <t>já encomendei o iphone 11, mas no meu contato demora 2 meses pq vem de fora, mas pelo preço vale muitooooooo</t>
   </si>
   <si>
-    <t>rt @guitremm3: não vai ter eu com iphone kkm</t>
-  </si>
-  <si>
-    <t>qual lugar p comprar iphone ? sem ser a apple hahaha</t>
-  </si>
-  <si>
     <t>iphone 12 n chega nunca</t>
   </si>
   <si>
-    <t>galeran, se alguém tiver interesse to vendendo um iphone 5s</t>
-  </si>
-  <si>
     <t>apple cagou com a câmera do iphone 8 nas redes sociais kkkkkk</t>
   </si>
   <si>
-    <t>rt @meuxbox: o criador de mortal kombat compara o xbox series s com iphone 11
-» https://t.co/c5tys2wvhm https://t.co/fgq2c9kpxk</t>
-  </si>
-  <si>
-    <t>esperava iphone recebeu 50 reais https://t.co/ojr0v2epfq</t>
-  </si>
-  <si>
     <t>iphone é bom, mas quando começa a dar problema pqp 🤬</t>
   </si>
   <si>
-    <t>@dolarbipolar dez anos atrás, em 14/09/2010, o valor do dólar era r$1,71... lembra? (◕︵◕)
-com este valor, você poderia comprar um iphone xr de 64gbs (sem imposto) por r$1024,29! (preço hoje em dia: ~3156,73) (✖╭╮✖) https://t.co/5l3oolpdw2</t>
-  </si>
-  <si>
-    <t>@marialu9472 n vai dar pra comprar um iphone agr 😔🤡</t>
-  </si>
-  <si>
-    <t>vende tu celular. ➝ https://t.co/sbxtmfkfyx 
-#lunesdecelulares #felizlunes #ventas #compras #smartphone #telefonos #fotos #selfies #aplicaciones #latam #whatsapp #facebook #pantallas #accesoriosparacelular #noticia #iphone #iphone11 https://t.co/bilyn3np7g</t>
-  </si>
-  <si>
     <t>@curryducation pago amg, mas meu pai tem iphone tbm e usa de boa sem pagar só os anúncios  incomodam</t>
   </si>
   <si>
-    <t>@matheuscarrmo mas é isso msm! é pra ficar igual ao ipad pro (q é igual ao iphone 5)</t>
-  </si>
-  <si>
-    <t>dá 10-0 ao iphone 8 que queria comprar</t>
-  </si>
-  <si>
     <t>iphone xr fica um lixo dps de usar durante 2 anos kkkk só me@iludi no início</t>
   </si>
   <si>
-    <t>@apolofleur @craibeibe n amg😭 eu iphone a tela fica preta</t>
-  </si>
-  <si>
     <t>deus, é pedir demais um iphone 11 max pro,  uma pele boa, umas plásticas, a vacina do covid,  o fim das queimadas no pantanal, coragem pra estudar todo os dias, a morte do bolsonaro e 34 toneladas de ouro? https://t.co/ds5aryzfym</t>
   </si>
   <si>
@@ -1046,13 +959,7 @@
     <t>um amigo meu vai se alistar na cruz vermelha e quer ir para áfrica ajudar, é ser voluntario. só um pergunta, com tantos justice warriors especialmente brancos, pq vcs não vão ajudar? que têm a perder? ou é melhor falar a partir do iphone no sofá de casa? queria mesmo 1 opinião.</t>
   </si>
   <si>
-    <t>@mauriciomfo um iphone 11 pro max em troca do meu silêncio.</t>
-  </si>
-  <si>
     <t>rt @sr_pessoa: iphone caindo 7% de bateria por minuto</t>
-  </si>
-  <si>
-    <t>rt @fabiocfprof: @allanldsantos @andrizek já parei de assistir ao @sportv por conta dele. menos mal aturar o comunistinha de iphone flávio…</t>
   </si>
   <si>
     <t>Teste</t>
@@ -1214,6 +1121,266 @@
   </si>
   <si>
     <t>amanhã não há iphone 12.😑😅 https://t.co/w6qa1q2kwl</t>
+  </si>
+  <si>
+    <t>caralhooo! não tem iphone 12 esse ano... o mundo mudou mesmo. espero que o ios14 venha bem otimizado</t>
+  </si>
+  <si>
+    <t>rt @mthmariae: esperando lançar o iphone 12 pra zoar o design e reclamar do preço
+#appleevent https://t.co/s6qb0anxsm</t>
+  </si>
+  <si>
+    <t>@cadupetkowicz sim mas a diferença é q o iphone não trava e não é ruim</t>
+  </si>
+  <si>
+    <t>rt @coisasdokaue: tim cook descartou qualquer esperança de upgrade de iphone no #appleevent</t>
+  </si>
+  <si>
+    <t>se o próximo iphone tiver carregador usb-c eu até posso reconsiderar minha decisão de comprar um android no ano que vem.</t>
+  </si>
+  <si>
+    <t>rt @peedrohenry_: não temos ainda o iphone 12, mas esse ios 14 tá me dando um gatilho muito forte #appleevent https://t.co/lovlcavmnp</t>
+  </si>
+  <si>
+    <t>hoje  aconteceu  a wwdc evento da @apple e adivinha? não teve lançamento de um novo iphone! o evento foi focado apenas no apple watch e ipad. que chato 😑</t>
+  </si>
+  <si>
+    <t>eu amei muito o design do iphone 12. ta parecendo a quinta geração mais quadrada e em aço dos lados. aaaaaaaaaa eu querooo!</t>
+  </si>
+  <si>
+    <t>iphone 7 entrando na atualização do ios é sinônimo que meu celular ainda vai viver muito tempo</t>
+  </si>
+  <si>
+    <t>eu queria um iphone pro roxo and what about it?? eu queria um ipad pro azul bebe and what about it?? mas nao so tem cor feia</t>
+  </si>
+  <si>
+    <t>coloque seu aparelho em modo de recuperação e restaure ele pelo itunes. o sistema vai ser limpo, o itunes irá instalar uma versão 0 do sistema no iphone e ele vai pode processar tudo certinho. aí é só restaurar o backup e configurar o restante.</t>
+  </si>
+  <si>
+    <t>@cadupetkowicz vou pagar pau pra iphone mesmo melhor compra da minha vida sepah</t>
+  </si>
+  <si>
+    <t>@dino_galactico @_patione melhor atributo apple. e eu pago por isso
+inclusive to voltando pro iphone 😭😭😍</t>
+  </si>
+  <si>
+    <t>o modelo de ipad tá mais bonito do que os últimos modelos de iphone mano.</t>
+  </si>
+  <si>
+    <t>aumentaram o iphone 4 e botaram 4 câmeras, entenda o caso https://t.co/iyz25yhmkw</t>
+  </si>
+  <si>
+    <t>rt @costhajosue: e eu que tava achando que o iphone 12 seria 10.000 kakaka a apple se superou dessa vez #appleevent https://t.co/loyqvomesf</t>
+  </si>
+  <si>
+    <t>nossa o iphone 12 eu achei feio</t>
+  </si>
+  <si>
+    <t>gente o modelo do iphone 5 é muito feio parece caixa de fósforo https://t.co/owlsknzlf7</t>
+  </si>
+  <si>
+    <t>rt @mahguizelini: a apple tá lançando o iphone 12 e até agora não fez um fio de carregador que prestasse 🤩🤩🤩
+#appleevent https://t.co/uqkfi…</t>
+  </si>
+  <si>
+    <t>eu não gosto do sistema da apple e muito menos do iphone pelo simples motivo é que não atende minhas necessidades porém vou resposta esse vídeo pra fazer as pessoas ouvirem champanhe problems da katy 
+#appleevent https://t.co/xsenhq8fud</t>
+  </si>
+  <si>
+    <t>não adianta, toda vez que eu ver alguém falar do iphone, eu vou pegar minha bandeira da @samsungbrasil e dissertar sobre o meu arrependimento de não ter comprado um samsung!</t>
+  </si>
+  <si>
+    <t>o meu iphone se nem vai ter memória pra isso kkkkkk https://t.co/varl1nga3a</t>
+  </si>
+  <si>
+    <t>@porrariana quando eu usava motorola, no início a bateria era boa também, durava uns 2 dias tranquilo, usando normal
+iphone sonhou, pq o meu tem dias que não aguenta nem metade do dia se eu ficar nos grupos de ******</t>
+  </si>
+  <si>
+    <t>e usar o melhor do ios novo.
+10 anos fazendo a mesma coisa, 10 anos sem problema nenhum com o iphone ❤️</t>
+  </si>
+  <si>
+    <t>@isamoreirat 5 mil eh pouco amg o iphone 11 quando saiu tinha ate por 10 mil kkkkkkkkkkk os cara olha e pensa::: crl mano agr vou poder assistir netflix e mexer no zap ao mesmo tempo a apple inovou tudo 🤩🤩🤩😳😳👏👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>to quase pegando um iphone 11 pelo itaú mas n sei
+a minha prioridade que é comprar um chuveiro me atrapalha</t>
+  </si>
+  <si>
+    <t>rt @updatechartuc: o iphone12 é o cruzamento do iphone 5 com o iphone 11. https://t.co/equb9tmn5j</t>
+  </si>
+  <si>
+    <t>rt @amandaramosf: achei o iphone 12 muito feio mas tomara que seja feio na minha mão 
+#appleevent https://t.co/vfjcj9ane8</t>
+  </si>
+  <si>
+    <t>rt @adilckarim: ter iphone não é ser rico, mentes vazias</t>
+  </si>
+  <si>
+    <t>propaganda de aplicativo pra iphone é tipo 
+olha que legal este efeito para fotos e vídeo aplicativo gratuito
+baixou o aplicativo abriu a primeira vez 
+aprove o pagamento apenas 120 por ano</t>
+  </si>
+  <si>
+    <t>esse moi de evento da apple aki, já tava achando q era um iphone novo, tava quase chegando no "plmdds para q eu comecei a me planejar pra compra uma melenga de um iphone 8 agr"</t>
+  </si>
+  <si>
+    <t>sem iphone novo esse ano finalmente uma notícia boa</t>
+  </si>
+  <si>
+    <t>lançamento do iphone 12 sendo que até fevereiro desse ano eu lutei com o meu 4s e então consegui o 8 plus que espero que seja a mesma lenda duradoura que aquele iphone 4s foi</t>
+  </si>
+  <si>
+    <t>esperando esse raio desse evento pelo iphone e maior balde de agua fria</t>
+  </si>
+  <si>
+    <t>@linarezende_ @darkmotherchaos eu acho que iphone serve pra trabalho sim, acima de 64gb é impecável. tenho o meu a quase 5 anos e nunca precisei apagar nada. ja bati 30k de mídia na galeria e nunca nem precisei apagar app nenhum ou conversas do wpp</t>
+  </si>
+  <si>
+    <t>porque do nada todo mundo resolveu vender seu iphone 6?</t>
+  </si>
+  <si>
+    <t>rt @larisslvesx: eu aguardando o lançamento do ios 14 enquanto carrego meu iphone 6s pela sexta vez no dia
+#appleevent https://t.co/frrbum0…</t>
+  </si>
+  <si>
+    <t>graças a deus que não teve lançamento de iphone novo né gente, quando terminar de pagar as parcelas do meu ele ainda será valorizado, amém 
+agora, lançou o apple watch series 6, já tá dando pra comprar o 3?</t>
+  </si>
+  <si>
+    <t>covid-19 pode estar a matrecar-nós, mas já imaginou um ano que acaba com iphone 12 e ps 5 como presente de natal 🎄? vamos esquecer corona vírus 🔥😂.</t>
+  </si>
+  <si>
+    <t>rt @ehmat14: o iphone 6s vai receber ios 14 #apple lista de todos iphones que vai receber ios 14 amanhã ❤️ #ios14 https://t.co/n433e1nfpa</t>
+  </si>
+  <si>
+    <t>a apple continua ridícula. um ipad novo em 2020 ainda com bezels de meio metro e touchid? o mini continua desactualizado. iphone 12 nem vê-lo.</t>
+  </si>
+  <si>
+    <t>rt @bryan_j_ingram: a apple tá lançando o iphone 12 e até agora não fez um fio de carregador que prestasse 🤩🤩🤩
+#appleevent ￼ https://t.co/3…</t>
+  </si>
+  <si>
+    <t>rt @djjotaene: geral trocando de iphone pra motorola agr kkk 🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>@xndg20 meu caso eh mais por preferência tbm, a única coisa q eu acho boa no iphone eh q ele é mto bem ótimizado</t>
+  </si>
+  <si>
+    <t>mal respeitei o iphone 11 e lá vem o 12. a apple tá achando que eu cago dinheiro</t>
+  </si>
+  <si>
+    <t>rt @jenispredemann: meu iphone 6s chora com essas atualizações toda</t>
+  </si>
+  <si>
+    <t>rt @saorialmeida: novo ipad air chegou com porta usb-c. quem quer apostar comigo que o iphone 12 segue?</t>
+  </si>
+  <si>
+    <t>mano para de anunciar iphone novo eu ainda to com o 5 quadradao</t>
+  </si>
+  <si>
+    <t>quem compra android e instala pack pra ficar cm interface do iphone não merece respeito</t>
+  </si>
+  <si>
+    <t>essa de o watch não ter mais cabo aumenta a esperança no iphone 100% wireless</t>
+  </si>
+  <si>
+    <t>iphone é o krl kkk gasta mais de 5000 em celular
+com isso compro um pc que já posso fazer mais coisas que um celular https://t.co/hfypgsy4hz</t>
+  </si>
+  <si>
+    <t>rt @vivendopassado: fui no evento de lançamento do novo iphone e comprei o mais novo iphone 3g to amando ❤ #appleevent https://t.co/9guyato…</t>
+  </si>
+  <si>
+    <t>o iphone 6s atualizando para o ios14 #appleevent https://t.co/zbwkzpbaqr</t>
+  </si>
+  <si>
+    <t>@renan29836386 eu tenho um samsung e um iphone  e sim iphone é melhor que samsung mas samsung é bom e o meu n trava</t>
+  </si>
+  <si>
+    <t>sonhando com o iphone 12 em minhas mãos 
+#appleevent https://t.co/mk5hhqof4u</t>
+  </si>
+  <si>
+    <t>achei o iphone 12 bonitão 👁👅👁</t>
+  </si>
+  <si>
+    <t>iphone 12 só na metade do mês que vem. babado né gatas.
+se sair um rose-gold que nem o ipad novo vou ficar muito louca e talvez venha ai 😭</t>
+  </si>
+  <si>
+    <t>rt @toveloira: mor a apple pegando as viúvas do iphone 4 e 5 com essas bordas quadradas socorro</t>
+  </si>
+  <si>
+    <t>@canabirodi n dá a pessoa não gosta mto de iphone...</t>
+  </si>
+  <si>
+    <t>@emot como é evidente, não disse o contrário. o meu reparo vai para o que fica deste evento, e a ausência do iphone é totalmente relevante. compreensível, dado o contexto.</t>
+  </si>
+  <si>
+    <t>talvez lancem o iphone 12 hoje e por alguns segundos eu pensei: “poxa, paguei tão caro no meu há algumas semanas, agora com o lançamento o preço do 11 vai cair. devia ter esperado”, mas aí lembrei q eu moro no brasil, o dólar tá alto, e não vai abaixar o preço do iphone tão cedo.</t>
+  </si>
+  <si>
+    <t>incrível como eu sou nem ai pra tecnologia. pode lançar o iphone que for eu só troco o meu quando ele quebrar</t>
+  </si>
+  <si>
+    <t>rt @gacastelo: legal o iphone 12 que é igual o iphone 11 que é igual ao 10 que é igual ao 9 que é parecido com o 8 e melhor que o 7</t>
+  </si>
+  <si>
+    <t>esses carregador de iphone é um lixo ou eu q não dou sorte com eles mesmo, pq tem lógica não</t>
+  </si>
+  <si>
+    <t>certeza que o iphone passa dos 10 mil esse ano</t>
+  </si>
+  <si>
+    <t>@lipemedeirosg amigo uso ele todo dia pra ouvir músicas e fica no outro wpp, eu só ouço música nele pq se for no iphone o fia bateria vai embora rapidinho</t>
+  </si>
+  <si>
+    <t>rt @joaozinhoo017: no twitter tu só é famosinha(o) se tu tens iphone e um baita corpo.
+não posso ser a única pessoa que acha isso né kkk</t>
+  </si>
+  <si>
+    <t>o iphone 12 é muito lindo e o ios 14 me deu tesao.............. sou cadelinha da apple sim</t>
+  </si>
+  <si>
+    <t>ios 14 vai sair amanhã é meu iphone não tem espaço nem pra atualizar pro 13🤡🤡🤡🤡#applevent</t>
+  </si>
+  <si>
+    <t>@gutoappolo eu rindo kkkkkkkkk sei que tem q questão ecológica e tudo mais só que poxa, cara. abrir a caixinha e ter só o iphone e o cabo é foda.</t>
+  </si>
+  <si>
+    <t>rt @maryxxcariati: iphone 12 sendo lançado e eu aqui com o meu 6s sem espaço pra nada</t>
+  </si>
+  <si>
+    <t>já vai sair o iphone 12 e eu to aqui lembrando que o meu ainda é o 7 e vai parar de funcionar as coisas #applevent https://t.co/7rkyrq2uv8</t>
+  </si>
+  <si>
+    <t>rt @raianesteves: extremamente aliviada que não lançaram o iphone 12 no #appleevent pq não estou preparada para a desvalorização do meu tão…</t>
+  </si>
+  <si>
+    <t>pq eu abro meu twitter e tá lotado de piada com iphone antigo travando com o ios 14?? 🙃🙃</t>
+  </si>
+  <si>
+    <t>enquanto alguns querem o iphone 12, eu só queria q a apple fizesse uma bateria que durasse mais https://t.co/t9xjlgguo8</t>
+  </si>
+  <si>
+    <t>ter adicionado faz muito tempo. (widgets por exemplo).
+-5 nanometros? 5 fucking nanometros? r u fucking kidding me???????
+to em choque com isso.
+curti o evento no geral e to ansioso pelo anuncio do iphone 12.
+contras: suporta vai vir 24k no brasil pq o dólar ta 520 reais.</t>
+  </si>
+  <si>
+    <t>essa atualização do iphone que vai lança amhã,tá perfeita</t>
+  </si>
+  <si>
+    <t>se o apple watch tá quase 1 pra 14, imagina o valor do iphone 12..
+r$ 9.999 deve ser o modelo de 54gb mais básico.</t>
+  </si>
+  <si>
+    <t>iphone novo vai vir custando uns 9000 reais k</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B303"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="59" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1633,23 +1800,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1657,47 +1824,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1705,39 +1872,39 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1745,55 +1912,55 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1801,87 +1968,87 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1889,7 +2056,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1897,7 +2064,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1905,39 +2072,39 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1945,7 +2112,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1953,7 +2120,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1961,7 +2128,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1969,7 +2136,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1977,7 +2144,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1985,39 +2152,39 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2025,15 +2192,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2041,7 +2208,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2049,15 +2216,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2065,31 +2232,31 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2097,7 +2264,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2105,47 +2272,47 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2153,15 +2320,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2169,15 +2336,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2185,31 +2352,31 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>327</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2217,39 +2384,39 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2257,55 +2424,55 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2313,7 +2480,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>342</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2321,23 +2488,23 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>343</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>344</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2345,15 +2512,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2361,15 +2528,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>347</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>348</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2377,23 +2544,23 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2401,7 +2568,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2409,7 +2576,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2417,39 +2584,39 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2457,7 +2624,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2465,39 +2632,39 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>363</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>364</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2505,55 +2672,55 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>387</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>389</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>391</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>392</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>393</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2561,39 +2728,39 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>394</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>395</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2601,71 +2768,71 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>400</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2673,15 +2840,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2689,7 +2856,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2697,7 +2864,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2705,15 +2872,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2721,7 +2888,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2729,7 +2896,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2737,15 +2904,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2753,7 +2920,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2761,7 +2928,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2769,7 +2936,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2777,7 +2944,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2785,7 +2952,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2793,7 +2960,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2801,7 +2968,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2809,7 +2976,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2817,7 +2984,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2825,7 +2992,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2833,7 +3000,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2841,15 +3008,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -2857,7 +3024,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2865,7 +3032,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2873,7 +3040,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -2881,15 +3048,15 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -2897,7 +3064,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -2905,7 +3072,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -2913,7 +3080,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -2921,7 +3088,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -2929,7 +3096,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -2937,23 +3104,23 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -2961,7 +3128,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -2969,7 +3136,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -2977,23 +3144,23 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3001,7 +3168,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3009,7 +3176,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3017,7 +3184,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3025,7 +3192,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3033,7 +3200,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3041,15 +3208,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3057,15 +3224,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -3073,7 +3240,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3081,7 +3248,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3089,23 +3256,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3113,7 +3280,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3121,7 +3288,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3129,7 +3296,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3137,7 +3304,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3145,7 +3312,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3153,7 +3320,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3161,7 +3328,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3169,7 +3336,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3177,7 +3344,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3185,7 +3352,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3193,7 +3360,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -3201,7 +3368,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3209,7 +3376,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3217,7 +3384,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3225,7 +3392,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3233,15 +3400,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3249,7 +3416,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3257,7 +3424,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3265,7 +3432,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -3273,7 +3440,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3281,7 +3448,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3289,7 +3456,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3297,7 +3464,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3305,15 +3472,15 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -3321,7 +3488,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3329,7 +3496,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -3337,7 +3504,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3345,7 +3512,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -3353,7 +3520,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -3361,7 +3528,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -3369,7 +3536,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -3377,7 +3544,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3385,7 +3552,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3393,7 +3560,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3401,7 +3568,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -3409,7 +3576,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -3417,7 +3584,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3425,7 +3592,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -3433,7 +3600,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3441,7 +3608,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -3449,7 +3616,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -3457,7 +3624,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -3465,7 +3632,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -3473,7 +3640,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -3481,7 +3648,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -3489,7 +3656,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -3497,7 +3664,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3505,7 +3672,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -3513,15 +3680,15 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -3529,15 +3696,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -3545,7 +3712,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -3553,7 +3720,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -3561,7 +3728,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -3569,23 +3736,23 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -3593,7 +3760,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -3601,7 +3768,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -3609,7 +3776,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -3617,7 +3784,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -3625,7 +3792,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -3633,7 +3800,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -3641,7 +3808,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -3649,7 +3816,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -3657,15 +3824,15 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -3673,7 +3840,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -3681,15 +3848,15 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -3697,7 +3864,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -3705,7 +3872,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -3713,15 +3880,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -3729,15 +3896,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -3745,7 +3912,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -3753,7 +3920,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -3761,7 +3928,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -3769,7 +3936,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -3777,15 +3944,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -3793,15 +3960,15 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -3809,7 +3976,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -3817,7 +3984,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -3825,15 +3992,15 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -3841,7 +4008,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -3849,15 +4016,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -3865,15 +4032,15 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -3881,7 +4048,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -3889,15 +4056,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -3905,7 +4072,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -3913,7 +4080,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -3921,15 +4088,15 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -3937,7 +4104,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -3945,15 +4112,15 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -3961,7 +4128,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -3969,7 +4136,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -3977,7 +4144,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -3985,7 +4152,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -3993,7 +4160,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -4001,7 +4168,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -4009,7 +4176,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -4017,37 +4184,298 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>226</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>227</v>
+      </c>
       <c r="B303">
-        <f>SUM(B2:B301)/300</f>
-        <v>0.23333333333333334</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>228</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>229</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>230</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>231</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>232</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>233</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>234</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>235</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>237</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>239</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>240</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>241</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>242</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>245</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>246</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>247</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>248</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>249</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>250</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>251</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>252</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>253</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>255</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>256</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>258</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>269</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>270</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>271</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>272</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>273</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>274</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B336">
+    <sortCondition descending="1" ref="B8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A43" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4057,44 +4485,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4102,71 +4530,71 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4174,15 +4602,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4190,15 +4618,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4206,47 +4634,47 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4254,39 +4682,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>169</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4294,39 +4722,39 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4334,7 +4762,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4342,7 +4770,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4350,7 +4778,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4358,15 +4786,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4374,15 +4802,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4390,15 +4818,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4406,7 +4834,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4414,7 +4842,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4422,7 +4850,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4430,7 +4858,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4438,7 +4866,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4446,7 +4874,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4454,19 +4882,208 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>299</v>
+      </c>
       <c r="B53">
-        <f>SUM(B2:B51)/50</f>
-        <v>0.18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>307</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>321</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Iphone_CDados.xlsx
+++ b/Iphone_CDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulochade/Desktop/insper/2 semestre/ciencia dos dados/Projeto/Cdados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940A6A2-8CDB-C542-8DDB-D5153C04AFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C053AB-F097-2D48-87AF-9EC51E8FAE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="407">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1381,6 +1381,9 @@
   </si>
   <si>
     <t>iphone novo vai vir custando uns 9000 reais k</t>
+  </si>
+  <si>
+    <t>Filtro</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="59" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1796,6 +1799,9 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/Iphone_CDados.xlsx
+++ b/Iphone_CDados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulochade/Desktop/insper/2 semestre/ciencia dos dados/Projeto/Cdados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C053AB-F097-2D48-87AF-9EC51E8FAE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580A32A-1BB0-7945-89C7-4EA0CCEB5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="407">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A165" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4480,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4493,6 +4493,9 @@
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/Iphone_CDados.xlsx
+++ b/Iphone_CDados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulochade/Desktop/insper/2 semestre/ciencia dos dados/Projeto/Cdados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c75d016613c0db3e/INSPER - Matérias/2°Semestre/Ciência dos Dados (CDados)/GitHub/CDados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580A32A-1BB0-7945-89C7-4EA0CCEB5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6580A32A-1BB0-7945-89C7-4EA0CCEB5171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30F78A53-69D6-465D-9431-40F100AE9D02}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27680" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1791,12 +1791,12 @@
       <selection activeCell="A115" sqref="A115:A206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" customWidth="1"/>
+    <col min="1" max="1" width="255.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>184</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>236</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>238</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>244</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>257</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>259</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>265</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>275</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>327</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>328</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>329</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>330</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>331</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>332</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>334</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>335</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>336</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>338</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>339</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>340</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>343</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>345</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>346</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>347</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>348</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>349</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>350</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>351</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>352</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>353</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>354</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>355</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>356</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>357</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>358</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>359</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>360</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>361</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>362</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>363</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>364</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>388</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>389</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>390</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>391</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>392</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>393</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>394</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>395</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>396</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>397</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>398</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>399</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>400</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>401</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>402</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>403</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>404</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>405</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>29</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>35</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>37</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>46</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>50</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>53</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>55</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>56</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>57</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>61</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>62</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>63</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>66</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>70</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>71</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>72</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>74</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>75</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>76</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>77</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>79</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>80</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>81</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>82</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>83</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>84</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>87</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>88</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>92</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>94</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>95</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>99</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>100</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>102</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>105</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>106</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>107</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>108</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>110</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>111</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>113</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>114</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>115</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>118</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>119</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>120</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>122</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>123</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>124</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>125</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>126</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>127</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>128</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>130</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>132</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>133</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>134</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>136</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>137</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>138</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>140</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>141</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>142</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>143</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>144</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>145</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>146</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>147</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>148</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>149</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>150</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>153</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>154</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>155</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>156</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>158</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>159</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>160</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>161</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>162</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>163</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>166</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>167</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>168</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>171</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>172</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>173</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>174</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>175</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>176</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>178</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>180</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>181</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>182</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>185</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>186</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>187</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>188</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>189</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>190</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>191</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>192</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>193</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>194</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>195</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>196</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>197</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>198</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>199</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>200</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>202</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>203</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>204</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>205</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>206</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>207</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>208</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>209</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>211</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>212</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>213</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>214</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>215</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>216</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>217</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>218</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>219</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>220</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>221</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>222</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>223</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>224</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>225</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>226</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>227</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>228</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>229</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>230</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>231</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>232</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>233</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>234</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>235</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>237</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>239</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>240</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>241</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>242</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>245</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>246</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>247</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>248</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>249</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>250</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>251</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>252</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>253</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>255</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>256</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>258</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>269</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>270</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>271</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>272</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>273</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>274</v>
       </c>
@@ -4480,16 +4480,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="213" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>300</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>305</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>316</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>365</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>367</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>369</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>370</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>371</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>374</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>375</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>376</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>377</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>378</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>379</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>381</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>382</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>383</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>384</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>385</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>386</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>277</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>279</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>283</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>284</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>285</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>287</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>288</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>289</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>291</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>293</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>295</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>296</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>297</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>298</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>301</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>302</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>303</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>304</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>306</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>308</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>309</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>310</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>311</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>313</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>317</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>319</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>320</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>321</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>322</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>323</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>324</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>325</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>326</v>
       </c>
